--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>0.1823603966588889</v>
+        <v>0.2197582861622222</v>
       </c>
       <c r="R2">
-        <v>1.64124356993</v>
+        <v>1.97782457546</v>
       </c>
       <c r="S2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="T2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
-        <v>0.4599582765675555</v>
+        <v>0.4599582765675556</v>
       </c>
       <c r="R3">
-        <v>4.139624489107999</v>
+        <v>4.139624489108</v>
       </c>
       <c r="S3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="T3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>0.2032229582611111</v>
+        <v>0.2873126151846667</v>
       </c>
       <c r="R4">
-        <v>1.82900662435</v>
+        <v>2.585813536662001</v>
       </c>
       <c r="S4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="T4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
     </row>
   </sheetData>
